--- a/project/templates/Database test_case.xlsx
+++ b/project/templates/Database test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580C6ED5-4FC8-164F-9AB6-045B8E74FFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FEC28E-AE1A-394F-AA9E-1B0A78498C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="3" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
@@ -2869,9 +2869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C61E61-C7DA-8B4C-BFD3-A6A16B4F2133}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>

--- a/project/templates/Database test_case.xlsx
+++ b/project/templates/Database test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FEC28E-AE1A-394F-AA9E-1B0A78498C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9342821-ACF6-B345-B145-3AA77017AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="3" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="2" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Module1!$A$8:$I$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module2!$A$8:$I$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Module2!$A$8:$I$18</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -432,26 +432,6 @@
     <t>TC_DI_05</t>
   </si>
   <si>
-    <t>Verify order item quantity and price are valid values</t>
-  </si>
-  <si>
-    <t>1. Login as customer
-2. Create an order with food items
-3. Place order successfully
-4. Open MongoDB Compass
-5. Connect to database
-6. Query orders collection using Order ID
-7. Inspect items.quantity and items.price</t>
-  </si>
-  <si>
-    <t>1. Food items exist in database
-2. Order is created successfully</t>
-  </si>
-  <si>
-    <t>Quantity &gt; 0
-Price &gt; 0</t>
-  </si>
-  <si>
     <t>1. Login as customer
 2. Navigate to Menu page
 3. Add food to cart
@@ -481,16 +461,6 @@
     <t>TC_DC_02</t>
   </si>
   <si>
-    <t>Verify menu listing reflects updated food information</t>
-  </si>
-  <si>
-    <t>1. Food linked to menu
-2. Food information updated</t>
-  </si>
-  <si>
-    <t>Menu shows updated food information</t>
-  </si>
-  <si>
     <t>TC_DC_03</t>
   </si>
   <si>
@@ -514,74 +484,162 @@
     <t>1. Login as admin.
 2. Navigate to Food List page.
 3. Update food information and save changes.
+4. View updated food data on UI.
+5. Query foods collection in database.
+6. Compare UI data with database data.</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Data Details</t>
+  </si>
+  <si>
+    <t>Order ID generated after order creation</t>
+  </si>
+  <si>
+    <t>Order ID: ObjectId (auto-generated)</t>
+  </si>
+  <si>
+    <t>Customer ID linked to order</t>
+  </si>
+  <si>
+    <t>User ID: ObjectId('USER_01'), Order.customerId = USER_01</t>
+  </si>
+  <si>
+    <t>Multiple food items in order without duplication</t>
+  </si>
+  <si>
+    <t>FOOD_01 (price 50000, qty 2); FOOD_02 (price 30000, qty 1)</t>
+  </si>
+  <si>
+    <t>Total amount calculated from order items</t>
+  </si>
+  <si>
+    <t>Expected totalAmount = 130000</t>
+  </si>
+  <si>
+    <t>Valid quantity and price values</t>
+  </si>
+  <si>
+    <t>Food information after update</t>
+  </si>
+  <si>
+    <t>Name: Chicken Burger Special; Price: 65000</t>
+  </si>
+  <si>
+    <t>UI and DB data after update</t>
+  </si>
+  <si>
+    <t>Data fields verify: [Name, Price, Description]</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Price &gt; 0</t>
+  </si>
+  <si>
+    <t>1. Food items exist in database</t>
+  </si>
+  <si>
+    <t>1. Login as customer
+2. Create an order with food items
+3. Place order successfully
+4. Open MongoDB Compass
+5. Connect to database
+6. Query Food collection
+7. Inspect price</t>
+  </si>
+  <si>
+    <t>Verify that the price of food items is stored with valid non-negative values.</t>
+  </si>
+  <si>
+    <t>Price is invalid value (&lt;0)</t>
+  </si>
+  <si>
+    <t>quantity = 1 (&gt;0)</t>
+  </si>
+  <si>
+    <t>Web does not support update food item</t>
+  </si>
+  <si>
+    <t>Verify added food name, price, and description are consistent across Menu and Home page</t>
+  </si>
+  <si>
+    <t>Verify deleted food name, price, and description are consistent across Menu and Home page</t>
+  </si>
+  <si>
+    <t>TC_DC_04</t>
+  </si>
+  <si>
+    <t>1. Food linked to menu
+2. Food item exist</t>
+  </si>
+  <si>
+    <t>1. Login as admin.
+2. Navigate to Food List page.
+3. Delete food item and save changes.
+4. Open MongoDB Compass.
+5. Query menus collection.
+6. Verify food information in menu data.</t>
+  </si>
+  <si>
+    <t>1. Login as admin.
+2. Navigate to Food List page.
+3. Adding food information and save changes.
 4. Open MongoDB Compass.
 5. Query menus collection.
 6. Verify updated food information in menu data.</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Food linked to menu
+</t>
+  </si>
+  <si>
+    <t>Menu shows new food information</t>
+  </si>
+  <si>
+    <t>Food item was deleted is not exist in Menu</t>
+  </si>
+  <si>
+    <t>TC_DC_05</t>
+  </si>
+  <si>
+    <t>Verify that search queries return correct food items from the database matches the keyword input</t>
+  </si>
+  <si>
     <t>1. Login as admin.
-2. Navigate to Food List page.
-3. Update food information and save changes.
-4. View updated food data on UI.
-5. Query foods collection in database.
-6. Compare UI data with database data.</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>Data Details</t>
-  </si>
-  <si>
-    <t>Order ID generated after order creation</t>
-  </si>
-  <si>
-    <t>Order ID: ObjectId (auto-generated)</t>
-  </si>
-  <si>
-    <t>Customer ID linked to order</t>
-  </si>
-  <si>
-    <t>User ID: ObjectId('USER_01'), Order.customerId = USER_01</t>
-  </si>
-  <si>
-    <t>Multiple food items in order without duplication</t>
-  </si>
-  <si>
-    <t>FOOD_01 (price 50000, qty 2); FOOD_02 (price 30000, qty 1)</t>
-  </si>
-  <si>
-    <t>Total amount calculated from order items</t>
-  </si>
-  <si>
-    <t>Expected totalAmount = 130000</t>
-  </si>
-  <si>
-    <t>Valid quantity and price values</t>
-  </si>
-  <si>
-    <t>quantity = 1 (&gt;0), price = 45000 (&gt;0)</t>
-  </si>
-  <si>
-    <t>Food information after update</t>
-  </si>
-  <si>
-    <t>Name: Chicken Burger Special; Price: 65000</t>
-  </si>
-  <si>
-    <t>Menu reflects updated food information</t>
-  </si>
-  <si>
-    <t>Menu: Main Dishes; Food: Chicken Burger Special</t>
-  </si>
-  <si>
-    <t>UI and DB data after update</t>
-  </si>
-  <si>
-    <t>Data fields verify: [Name, Price, Description]</t>
-  </si>
-  <si>
-    <t>TestData</t>
+2. Navigate to Menu.
+3. Search food item with a keyword
+4. View result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List food item matches keyword input </t>
+  </si>
+  <si>
+    <t>TestData09</t>
+  </si>
+  <si>
+    <t>Web does not support search food item</t>
+  </si>
+  <si>
+    <t>TestData10</t>
+  </si>
+  <si>
+    <t>Name: Bun bo; Price: 40</t>
+  </si>
+  <si>
+    <t>Food information after adding</t>
+  </si>
+  <si>
+    <t>Menu after deleting some foods</t>
+  </si>
+  <si>
+    <t>List food after search keyword input</t>
+  </si>
+  <si>
+    <t>Bun thit</t>
   </si>
 </sst>
 </file>
@@ -784,7 +842,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1269,6 +1327,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1277,7 +1348,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1593,10 +1664,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1605,6 +1672,38 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1628,6 +1727,36 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1637,68 +1766,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2113,13 +2212,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2130,11 +2229,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2144,36 +2243,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="123" t="str">
+      <c r="C6" s="133" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2293,7 +2392,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView zoomScale="178" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2320,39 +2419,39 @@
       <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127" t="str">
+      <c r="C3" s="136"/>
+      <c r="D3" s="137" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127" t="str">
+      <c r="C4" s="136"/>
+      <c r="D4" s="137" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
     </row>
     <row r="5" spans="2:6" s="38" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125" t="s">
+      <c r="C5" s="134"/>
+      <c r="D5" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="39"/>
@@ -2389,7 +2488,7 @@
       <c r="B9" s="48">
         <v>1</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="119" t="s">
         <v>68</v>
       </c>
       <c r="D9" s="50" t="s">
@@ -2402,7 +2501,7 @@
       <c r="B10" s="48">
         <v>2</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="119" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="107" t="s">
@@ -2514,9 +2613,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D16ABC5-B443-FF41-BA73-04E67E6728A8}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2529,8 +2628,8 @@
     <col min="6" max="6" width="12.6640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" style="8" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15" style="57" customWidth="1"/>
-    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="57" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" style="8" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
@@ -2567,13 +2666,13 @@
       <c r="A3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="145"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="62"/>
@@ -2585,11 +2684,11 @@
       <c r="A4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="139"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="62"/>
@@ -2608,10 +2707,10 @@
       <c r="D5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
       <c r="I5" s="71"/>
@@ -2622,11 +2721,11 @@
     <row r="6" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="72" cm="1">
         <f t="array" ref="A6">SUM(IF($G$9:$G$100="Pass",1,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="73" cm="1">
         <f t="array" ref="B6">SUM(IF($G$9:$G$100="Fail",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="73">
         <f>E6-D6-B6-A6</f>
@@ -2636,11 +2735,11 @@
         <f t="array" ref="D6">SUM(IF($G$9:$G$100="N/A",1,0))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="135">
+      <c r="E6" s="138">
         <f>ROWS(A9:A13)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="71"/>
@@ -2690,7 +2789,7 @@
       </c>
       <c r="J8" s="76"/>
     </row>
-    <row r="9" spans="1:10" s="78" customFormat="1" ht="130" customHeight="1">
+    <row r="9" spans="1:10" s="78" customFormat="1" ht="116" customHeight="1">
       <c r="A9" s="109" t="s">
         <v>67</v>
       </c>
@@ -2712,8 +2811,8 @@
       <c r="G9" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="152" t="s">
-        <v>127</v>
+      <c r="H9" s="129" t="s">
+        <v>116</v>
       </c>
       <c r="I9" s="110"/>
       <c r="J9" s="77"/>
@@ -2729,7 +2828,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" s="111" t="s">
         <v>77</v>
@@ -2740,13 +2839,13 @@
       <c r="G10" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="152" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="114"/>
+      <c r="H10" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="110"/>
       <c r="J10" s="77"/>
     </row>
-    <row r="11" spans="1:10" s="131" customFormat="1" ht="93" customHeight="1">
+    <row r="11" spans="1:10" s="118" customFormat="1" ht="93" customHeight="1">
       <c r="A11" s="109" t="s">
         <v>78</v>
       </c>
@@ -2757,7 +2856,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E11" s="111" t="s">
         <v>81</v>
@@ -2768,13 +2867,13 @@
       <c r="G11" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="152" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="111"/>
-    </row>
-    <row r="12" spans="1:10" ht="93" customHeight="1">
-      <c r="A12" s="117" t="s">
+      <c r="H11" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="109"/>
+    </row>
+    <row r="12" spans="1:10" ht="102" customHeight="1">
+      <c r="A12" s="115" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="111" t="s">
@@ -2783,8 +2882,8 @@
       <c r="C12" s="111" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="119" t="s">
-        <v>97</v>
+      <c r="D12" s="117" t="s">
+        <v>93</v>
       </c>
       <c r="E12" s="112" t="s">
         <v>85</v>
@@ -2792,41 +2891,43 @@
       <c r="F12" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="152" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="115"/>
+      <c r="H12" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="151"/>
       <c r="J12" s="77"/>
     </row>
-    <row r="13" spans="1:10" ht="98">
-      <c r="A13" s="117" t="s">
+    <row r="13" spans="1:10" ht="104" customHeight="1">
+      <c r="A13" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="111" t="s">
-        <v>91</v>
+      <c r="B13" s="153" t="s">
+        <v>120</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="143" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="143" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="152" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="116"/>
+      <c r="G13" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="152" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="14">
       <c r="A14" s="57"/>
@@ -2867,11 +2968,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C61E61-C7DA-8B4C-BFD3-A6A16B4F2133}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2921,13 +3022,13 @@
       <c r="A3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="143" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="145"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="62"/>
@@ -2939,11 +3040,11 @@
       <c r="A4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="139"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="62"/>
@@ -2962,10 +3063,10 @@
       <c r="D5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="134"/>
+      <c r="F5" s="147"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
       <c r="I5" s="71"/>
@@ -2975,11 +3076,11 @@
     </row>
     <row r="6" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="72" cm="1">
-        <f t="array" ref="A6">SUM(IF($G$9:$G$100="Pass",1,0))</f>
+        <f t="array" ref="A6">SUM(IF($G$9:$G$99="Pass",1,0))</f>
         <v>3</v>
       </c>
       <c r="B6" s="73" cm="1">
-        <f t="array" ref="B6">SUM(IF($G$9:$G$100="Fail",1,0))</f>
+        <f t="array" ref="B6">SUM(IF($G$9:$G$99="Fail",1,0))</f>
         <v>0</v>
       </c>
       <c r="C6" s="73">
@@ -2987,14 +3088,14 @@
         <v>0</v>
       </c>
       <c r="D6" s="74" cm="1">
-        <f t="array" ref="D6">SUM(IF($G$9:$G$100="N/A",1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="135">
-        <f>ROWS(A9:A11)</f>
-        <v>3</v>
-      </c>
-      <c r="F6" s="136"/>
+        <f t="array" ref="D6">SUM(IF($G$9:$G$99="N/A",1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="138">
+        <f>5</f>
+        <v>5</v>
+      </c>
+      <c r="F6" s="139"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="71"/>
@@ -3041,7 +3142,7 @@
       <c r="J8" s="76"/>
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="90">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="115" t="s">
         <v>86</v>
       </c>
       <c r="B9" s="111" t="s">
@@ -3051,86 +3152,141 @@
         <v>88</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="117" t="s">
+      <c r="F9" s="115" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="151" t="s">
-        <v>127</v>
+      <c r="H9" s="128" t="s">
+        <v>116</v>
       </c>
       <c r="I9" s="114"/>
       <c r="J9" s="77"/>
     </row>
     <row r="10" spans="1:10" s="78" customFormat="1" ht="90">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="156" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="115" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="155" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="158"/>
+      <c r="J10" s="77"/>
+    </row>
+    <row r="11" spans="1:10" ht="90">
+      <c r="A11" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="156" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="115" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="159"/>
+    </row>
+    <row r="12" spans="1:10" ht="90">
+      <c r="A12" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="151" t="s">
+      <c r="F12" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="60">
+      <c r="A13" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="160" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="114"/>
-      <c r="J10" s="77"/>
-    </row>
-    <row r="11" spans="1:10" s="131" customFormat="1" ht="90">
-      <c r="A11" s="109" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="111" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="151" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="111"/>
-    </row>
-    <row r="12" spans="1:10" ht="14">
-      <c r="A12" s="57"/>
-      <c r="C12"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="57"/>
-      <c r="I13" s="8"/>
+      <c r="D13" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="161" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="9:9">
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="9:9">
+      <c r="I20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3142,14 +3298,13 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7 G8:G11 F14:F138" xr:uid="{A9F6A76A-5E70-D342-AD22-039E55C03A07}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7 G8:G13 F21:F137 F14:F18" xr:uid="{A9F6A76A-5E70-D342-AD22-039E55C03A07}">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H9" location="TestData!A1" display="TestData" xr:uid="{A131E294-A23B-8949-B111-998782428E46}"/>
-    <hyperlink ref="H10:H11" location="TestData!A1" display="TestData" xr:uid="{39FEAE12-92D2-E044-B7F0-8F7A9469E974}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.25" top="0.75" bottom="0.98402777777777772" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -3165,146 +3320,177 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="144" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="144" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="144" customWidth="1"/>
-    <col min="4" max="4" width="76.5" style="144" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="144"/>
+    <col min="1" max="1" width="22.83203125" style="121" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="121" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="121" customWidth="1"/>
+    <col min="4" max="4" width="76.5" style="121" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="122" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="125" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="127" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="146" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="147" t="s">
+      <c r="D5" s="127" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="148" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="148" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="149" t="s">
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="125" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D6" s="127" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="126" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21">
-      <c r="A3" s="148" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="148" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="149" t="s">
+      <c r="D7" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="150" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="125" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="125" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="126" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="148" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="148" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="149" t="s">
+      <c r="D10" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="150" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21">
-      <c r="A5" s="148" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="149" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="150" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="148" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="149" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="150" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="148" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="148" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="149" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="150" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="148" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="148" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="149" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="150" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="21">
-      <c r="A9" s="148" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="148" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="149" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="150" t="s">
-        <v>126</v>
-      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="125" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="162" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="162" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="125"/>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
@@ -3318,7 +3504,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3332,15 +3518,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="79"/>
@@ -3356,14 +3542,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128" t="s">
+      <c r="D3" s="137"/>
+      <c r="E3" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="128"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="82"/>
       <c r="H3" s="83"/>
     </row>
@@ -3371,14 +3557,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="128" t="s">
+      <c r="D4" s="137"/>
+      <c r="E4" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="128"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="82"/>
       <c r="H4" s="83"/>
     </row>
@@ -3386,15 +3572,15 @@
       <c r="B5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="127" t="str">
+      <c r="C5" s="137" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="128" t="s">
+      <c r="D5" s="137"/>
+      <c r="E5" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="128"/>
+      <c r="F5" s="148"/>
       <c r="G5" s="82"/>
       <c r="H5" s="85" t="s">
         <v>44</v>
@@ -3405,14 +3591,14 @@
       <c r="B6" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="79"/>
@@ -3468,11 +3654,11 @@
       </c>
       <c r="D11" s="95">
         <f>Module1!A6</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="95">
         <f>Module1!B6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="95">
         <f>Module1!C6</f>
@@ -3509,11 +3695,11 @@
       </c>
       <c r="G12" s="95">
         <f>Module2!D6</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="95">
+        <v>2</v>
+      </c>
+      <c r="H12" s="97">
         <f>Module2!E6</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3534,11 +3720,11 @@
       </c>
       <c r="D14" s="100">
         <f>SUM(D9:D13)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="100">
         <f>SUM(E9:E13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="100">
         <f>SUM(F9:F13)</f>
@@ -3546,11 +3732,11 @@
       </c>
       <c r="G14" s="100">
         <f>SUM(G9:G13)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="101">
         <f>SUM(H9:H13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3580,7 +3766,7 @@
       </c>
       <c r="E17" s="106">
         <f>D14*100/(H14-G14)</f>
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>51</v>
@@ -3608,6 +3794,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b08c537a49adf1f0264621696145d4e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79edc66073723f43766a972d30b274e4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3981,16 +4176,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCAE63D-5380-40ED-A43E-1567E1C20371}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4007,12 +4201,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/project/templates/Database test_case.xlsx
+++ b/project/templates/Database test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9342821-ACF6-B345-B145-3AA77017AF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88419D7-3678-B944-BE50-D8027354B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="2" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="3" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -419,9 +419,6 @@
     <t>TC_DC_01</t>
   </si>
   <si>
-    <t>Verify updated food information is saved correctly in database</t>
-  </si>
-  <si>
     <t>1. Admin account exists
 2. Food item exists</t>
   </si>
@@ -537,9 +534,6 @@
     <t>TestData</t>
   </si>
   <si>
-    <t>Price &gt; 0</t>
-  </si>
-  <si>
     <t>1. Food items exist in database</t>
   </si>
   <si>
@@ -555,9 +549,6 @@
     <t>Verify that the price of food items is stored with valid non-negative values.</t>
   </si>
   <si>
-    <t>Price is invalid value (&lt;0)</t>
-  </si>
-  <si>
     <t>quantity = 1 (&gt;0)</t>
   </si>
   <si>
@@ -640,6 +631,15 @@
   </si>
   <si>
     <t>Bun thit</t>
+  </si>
+  <si>
+    <t>Store a price that is invalid value (&lt;0)</t>
+  </si>
+  <si>
+    <t>Store a price that is valid value (&lt;0)</t>
+  </si>
+  <si>
+    <t>Verify updated food name, price, and description are consistent across Menu and Home page</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1348,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1705,6 +1705,35 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1766,38 +1795,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2212,13 +2209,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2229,11 +2226,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2243,36 +2240,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="133" t="str">
+      <c r="C6" s="144" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2419,39 +2416,39 @@
       <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137" t="str">
+      <c r="C3" s="147"/>
+      <c r="D3" s="148" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="136" t="s">
+      <c r="B4" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137" t="str">
+      <c r="C4" s="147"/>
+      <c r="D4" s="148" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
     </row>
     <row r="5" spans="2:6" s="38" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="135" t="s">
+      <c r="C5" s="145"/>
+      <c r="D5" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="39"/>
@@ -2613,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D16ABC5-B443-FF41-BA73-04E67E6728A8}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2648,13 +2645,13 @@
       <c r="A2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="62"/>
@@ -2666,13 +2663,13 @@
       <c r="A3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="145"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="62"/>
@@ -2684,11 +2681,11 @@
       <c r="A4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="62"/>
@@ -2707,10 +2704,10 @@
       <c r="D5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
       <c r="I5" s="71"/>
@@ -2735,11 +2732,11 @@
         <f t="array" ref="D6">SUM(IF($G$9:$G$100="N/A",1,0))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="149">
         <f>ROWS(A9:A13)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="139"/>
+      <c r="F6" s="150"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="71"/>
@@ -2812,7 +2809,7 @@
         <v>29</v>
       </c>
       <c r="H9" s="129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="110"/>
       <c r="J9" s="77"/>
@@ -2828,7 +2825,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="111" t="s">
         <v>77</v>
@@ -2840,7 +2837,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I10" s="110"/>
       <c r="J10" s="77"/>
@@ -2856,7 +2853,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="111" t="s">
         <v>81</v>
@@ -2868,7 +2865,7 @@
         <v>29</v>
       </c>
       <c r="H11" s="129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I11" s="109"/>
     </row>
@@ -2883,7 +2880,7 @@
         <v>84</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="112" t="s">
         <v>85</v>
@@ -2895,26 +2892,26 @@
         <v>29</v>
       </c>
       <c r="H12" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="151"/>
+        <v>115</v>
+      </c>
+      <c r="I12" s="130"/>
       <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="104" customHeight="1">
       <c r="A13" s="115" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="153" t="s">
-        <v>120</v>
+        <v>89</v>
+      </c>
+      <c r="B13" s="131" t="s">
+        <v>118</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="120" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="120" t="s">
         <v>117</v>
+      </c>
+      <c r="E13" s="130" t="s">
+        <v>143</v>
       </c>
       <c r="F13" s="115" t="s">
         <v>62</v>
@@ -2923,10 +2920,10 @@
         <v>32</v>
       </c>
       <c r="H13" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="152" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="I13" s="130" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14">
@@ -2970,9 +2967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C61E61-C7DA-8B4C-BFD3-A6A16B4F2133}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3004,13 +3001,13 @@
       <c r="A2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="142"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="153"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="62"/>
@@ -3022,13 +3019,13 @@
       <c r="A3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="145"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="62"/>
@@ -3040,11 +3037,11 @@
       <c r="A4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="145"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="156"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="62"/>
@@ -3063,10 +3060,10 @@
       <c r="D5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
       <c r="I5" s="71"/>
@@ -3091,11 +3088,11 @@
         <f t="array" ref="D6">SUM(IF($G$9:$G$99="N/A",1,0))</f>
         <v>2</v>
       </c>
-      <c r="E6" s="138">
+      <c r="E6" s="149">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="F6" s="139"/>
+      <c r="F6" s="150"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="71"/>
@@ -3146,16 +3143,16 @@
         <v>86</v>
       </c>
       <c r="B9" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="D9" s="111" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="111" t="s">
         <v>88</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="111" t="s">
-        <v>89</v>
       </c>
       <c r="F9" s="115" t="s">
         <v>63</v>
@@ -3164,54 +3161,54 @@
         <v>29</v>
       </c>
       <c r="H9" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I9" s="114"/>
       <c r="J9" s="77"/>
     </row>
     <row r="10" spans="1:10" s="78" customFormat="1" ht="90">
-      <c r="A10" s="155" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="154" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="156" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="156" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="156" t="s">
-        <v>131</v>
+      <c r="A10" s="133" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="134" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="134" t="s">
+        <v>128</v>
       </c>
       <c r="F10" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="157" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="158"/>
+      <c r="H10" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="136"/>
       <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="90">
       <c r="A11" s="109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="111" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="156" t="s">
-        <v>132</v>
+      <c r="E11" s="134" t="s">
+        <v>129</v>
       </c>
       <c r="F11" s="115" t="s">
         <v>65</v>
@@ -3219,67 +3216,67 @@
       <c r="G11" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="157" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="159"/>
+      <c r="H11" s="135" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="137"/>
     </row>
     <row r="12" spans="1:10" ht="90">
       <c r="A12" s="109" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="D12" s="111" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="111" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="111" t="s">
-        <v>98</v>
-      </c>
       <c r="F12" s="115" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G12" s="115" t="s">
         <v>35</v>
       </c>
       <c r="H12" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="114" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="160" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" s="161" t="s">
+      <c r="F13" s="115" t="s">
         <v>136</v>
-      </c>
-      <c r="F13" s="115" t="s">
-        <v>139</v>
       </c>
       <c r="G13" s="115" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="114" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="9:9">
@@ -3340,13 +3337,13 @@
         <v>59</v>
       </c>
       <c r="B1" s="122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="123" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="124" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21">
@@ -3357,10 +3354,10 @@
         <v>67</v>
       </c>
       <c r="C2" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="127" t="s">
         <v>103</v>
-      </c>
-      <c r="D2" s="127" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21">
@@ -3371,10 +3368,10 @@
         <v>71</v>
       </c>
       <c r="C3" s="126" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="127" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" s="127" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -3385,10 +3382,10 @@
         <v>78</v>
       </c>
       <c r="C4" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="127" t="s">
         <v>107</v>
-      </c>
-      <c r="D4" s="127" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21">
@@ -3399,10 +3396,10 @@
         <v>82</v>
       </c>
       <c r="C5" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="127" t="s">
         <v>109</v>
-      </c>
-      <c r="D5" s="127" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -3410,13 +3407,13 @@
         <v>62</v>
       </c>
       <c r="B6" s="125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="127" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21">
@@ -3427,10 +3424,10 @@
         <v>86</v>
       </c>
       <c r="C7" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="127" t="s">
         <v>112</v>
-      </c>
-      <c r="D7" s="127" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -3438,13 +3435,13 @@
         <v>64</v>
       </c>
       <c r="B8" s="125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="126" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D8" s="127" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3452,10 +3449,10 @@
         <v>65</v>
       </c>
       <c r="B9" s="125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="121" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D9" s="121" t="s">
         <v>35</v>
@@ -3463,30 +3460,30 @@
     </row>
     <row r="10" spans="1:4" ht="21">
       <c r="A10" s="125" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B10" s="125" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C10" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="127" t="s">
         <v>114</v>
-      </c>
-      <c r="D10" s="127" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="125" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="162" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="162" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="140" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3518,15 +3515,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="79"/>
@@ -3542,14 +3539,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="148" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="148"/>
+      <c r="F3" s="159"/>
       <c r="G3" s="82"/>
       <c r="H3" s="83"/>
     </row>
@@ -3557,14 +3554,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="148" t="s">
+      <c r="D4" s="148"/>
+      <c r="E4" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="159"/>
       <c r="G4" s="82"/>
       <c r="H4" s="83"/>
     </row>
@@ -3572,15 +3569,15 @@
       <c r="B5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="137" t="str">
+      <c r="C5" s="148" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="148" t="s">
+      <c r="D5" s="148"/>
+      <c r="E5" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="159"/>
       <c r="G5" s="82"/>
       <c r="H5" s="85" t="s">
         <v>44</v>
@@ -3591,14 +3588,14 @@
       <c r="B6" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="79"/>
@@ -3794,15 +3791,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005EA2A741C5885C41AB9A358CCBEA8A85" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b08c537a49adf1f0264621696145d4e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="41A7A25E-88C5-415C-AB9A-358CCBEA8A85" xmlns:ns3="cd6d2771-e08b-42a3-90f8-eca630337659" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79edc66073723f43766a972d30b274e4" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4176,15 +4164,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FCAE63D-5380-40ED-A43E-1567E1C20371}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4201,4 +4190,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85ED280E-F51D-42B1-B363-4EC477D089ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/project/templates/Database test_case.xlsx
+++ b/project/templates/Database test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongnhat/Desktop/Project-KTPM/project/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88419D7-3678-B944-BE50-D8027354B2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC09E61-0B99-2F44-BAC5-AC862EC67564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="34560" windowHeight="20060" tabRatio="821" activeTab="3" xr2:uid="{54D1C333-A8F3-504F-8D67-28F9DF72E520}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="Test case List" sheetId="2" r:id="rId2"/>
     <sheet name="Module1" sheetId="3" r:id="rId3"/>
     <sheet name="Module2" sheetId="9" r:id="rId4"/>
-    <sheet name="TestData" sheetId="8" r:id="rId5"/>
-    <sheet name="Test Report" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId5"/>
+    <sheet name="TestData" sheetId="8" r:id="rId6"/>
+    <sheet name="Test Report" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Module1!$A$8:$I$12</definedName>
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="144">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -372,15 +373,6 @@
 3. Order creation API/UI is available</t>
   </si>
   <si>
-    <t>1. Login as customer
-2. Navigate to Menu page
-3. Add food to cart
-4. Place order successfully
-5. Open MongoDB Compass
-6. Connect to database
-7. Query orders collection using Order ID</t>
-  </si>
-  <si>
     <t>Verify Customer ID is linked correctly to order</t>
   </si>
   <si>
@@ -429,32 +421,6 @@
     <t>TC_DI_05</t>
   </si>
   <si>
-    <t>1. Login as customer
-2. Navigate to Menu page
-3. Add food to cart
-4. Place order successfully
-5. Open MongoDB Compass
-6. Query orders collection using customer ID
-7. Check customerId field</t>
-  </si>
-  <si>
-    <t>1. Login as customer
-2. Navigate to Menu page
-3. Create order with multiple items
-4. Open MongoDB Compass
-5. Query orders collection
-6. Inspect items array</t>
-  </si>
-  <si>
-    <t>1. Login as customer
-2. Navigate to Menu page
-3. Create order with multiple items
-4. Open MongoDB Compass
-5. Retrieve order document
-6. Calculate total manually
-7. Compare with totalAmount field</t>
-  </si>
-  <si>
     <t>TC_DC_02</t>
   </si>
   <si>
@@ -468,14 +434,6 @@
   </si>
   <si>
     <t>UI data matches database data</t>
-  </si>
-  <si>
-    <t>1. Login as admin.
-2. Navigate to Food List page.
-3. Update food information and save changes.
-4. Open MongoDB Compass.
-5. Query foods collection using Food ID.
-6. Verify updated food data.</t>
   </si>
   <si>
     <t>1. Login as admin.
@@ -501,9 +459,6 @@
     <t>Customer ID linked to order</t>
   </si>
   <si>
-    <t>User ID: ObjectId('USER_01'), Order.customerId = USER_01</t>
-  </si>
-  <si>
     <t>Multiple food items in order without duplication</t>
   </si>
   <si>
@@ -516,9 +471,6 @@
     <t>Expected totalAmount = 130000</t>
   </si>
   <si>
-    <t>Valid quantity and price values</t>
-  </si>
-  <si>
     <t>Food information after update</t>
   </si>
   <si>
@@ -535,21 +487,6 @@
   </si>
   <si>
     <t>1. Food items exist in database</t>
-  </si>
-  <si>
-    <t>1. Login as customer
-2. Create an order with food items
-3. Place order successfully
-4. Open MongoDB Compass
-5. Connect to database
-6. Query Food collection
-7. Inspect price</t>
-  </si>
-  <si>
-    <t>Verify that the price of food items is stored with valid non-negative values.</t>
-  </si>
-  <si>
-    <t>quantity = 1 (&gt;0)</t>
   </si>
   <si>
     <t>Web does not support update food item</t>
@@ -566,22 +503,6 @@
   <si>
     <t>1. Food linked to menu
 2. Food item exist</t>
-  </si>
-  <si>
-    <t>1. Login as admin.
-2. Navigate to Food List page.
-3. Delete food item and save changes.
-4. Open MongoDB Compass.
-5. Query menus collection.
-6. Verify food information in menu data.</t>
-  </si>
-  <si>
-    <t>1. Login as admin.
-2. Navigate to Food List page.
-3. Adding food information and save changes.
-4. Open MongoDB Compass.
-5. Query menus collection.
-6. Verify updated food information in menu data.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Food linked to menu
@@ -633,13 +554,89 @@
     <t>Bun thit</t>
   </si>
   <si>
-    <t>Store a price that is invalid value (&lt;0)</t>
-  </si>
-  <si>
     <t>Store a price that is valid value (&lt;0)</t>
   </si>
   <si>
     <t>Verify updated food name, price, and description are consistent across Menu and Home page</t>
+  </si>
+  <si>
+    <t>1. Login as customer
+2. Navigate to Menu page
+3. Create order with multiple items
+4. Open MongoDB Compass/Cloud
+5. Retrieve order document
+6. Calculate total manually
+7. Compare with totalAmount field</t>
+  </si>
+  <si>
+    <t>1. Login as customer
+2. Navigate to Menu page
+3. Create order with multiple items
+4. Open MongoDB Compass/Cloud
+5. Query orders collection
+6. Inspect items array</t>
+  </si>
+  <si>
+    <t>1. Login as customer
+2. Navigate to Menu page
+3. Add food to cart
+4. Place order successfully
+5. Open MongoDB Compass/Cloud
+6. Query orders collection using customer ID
+7. Check customerId field</t>
+  </si>
+  <si>
+    <t>1. Login as customer
+2. Navigate to Menu page
+3. Add food to cart
+4. Place order successfully
+5. Open MongoDB Compass/Cloud
+6. Connect to database
+7. Query orders collection using Order ID</t>
+  </si>
+  <si>
+    <t>1. Login as admin.
+2. Navigate to Food List page.
+3. Update food information and save changes.
+4. Open MongoDB Compass/Cloud
+5. Query foods collection using Food ID.
+6. Verify updated food data.</t>
+  </si>
+  <si>
+    <t>1. Login as admin.
+2. Navigate to Food List page.
+3. Adding food information and save changes.
+4. Open MongoDB Compass/Cloud
+5. Query menus collection.
+6. Verify updated food information in menu data.</t>
+  </si>
+  <si>
+    <t>1. Login as admin.
+2. Navigate to Food List page.
+3. Delete food item and save changes.
+4. Open MongoDB Compass/Cloud
+5. Query menus collection.
+6. Verify food information in menu data.</t>
+  </si>
+  <si>
+    <t>1. Login as customer
+2. Navigate to Menu page
+3. Create order with food items
+4. Open MongoDB Compass/Clould
+5. Query orders collection
+6. Inspect items array</t>
+  </si>
+  <si>
+    <t>Verify that the price of food items is stored in order table has valid values.</t>
+  </si>
+  <si>
+    <t>price = 10 (&gt;0)</t>
+  </si>
+  <si>
+    <t>Valid price values</t>
+  </si>
+  <si>
+    <t>User ID: ObjectId('USER_01'), Order.customerId = user1</t>
   </si>
 </sst>
 </file>
@@ -1348,7 +1345,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1677,9 +1674,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2209,13 +2203,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2226,11 +2220,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2240,36 +2234,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="142" t="s">
+      <c r="C5" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="142"/>
-      <c r="E5" s="142"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="144" t="str">
+      <c r="C6" s="143" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="143"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2416,39 +2410,39 @@
       <c r="E2" s="37"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148" t="str">
+      <c r="C3" s="146"/>
+      <c r="D3" s="147" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148" t="str">
+      <c r="C4" s="146"/>
+      <c r="D4" s="147" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
     </row>
     <row r="5" spans="2:6" s="38" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="146" t="s">
+      <c r="C5" s="144"/>
+      <c r="D5" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="39"/>
@@ -2611,8 +2605,8 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="8" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2645,13 +2639,13 @@
       <c r="A2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="62"/>
@@ -2663,13 +2657,13 @@
       <c r="A3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="62"/>
@@ -2681,11 +2675,11 @@
       <c r="A4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="62"/>
@@ -2704,10 +2698,10 @@
       <c r="D5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="158"/>
+      <c r="F5" s="157"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
       <c r="I5" s="71"/>
@@ -2718,11 +2712,11 @@
     <row r="6" spans="1:10" s="63" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="72" cm="1">
         <f t="array" ref="A6">SUM(IF($G$9:$G$100="Pass",1,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="73" cm="1">
         <f t="array" ref="B6">SUM(IF($G$9:$G$100="Fail",1,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="73">
         <f>E6-D6-B6-A6</f>
@@ -2732,11 +2726,11 @@
         <f t="array" ref="D6">SUM(IF($G$9:$G$100="N/A",1,0))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="149">
+      <c r="E6" s="148">
         <f>ROWS(A9:A13)</f>
         <v>5</v>
       </c>
-      <c r="F6" s="150"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="71"/>
@@ -2797,7 +2791,7 @@
         <v>73</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="E9" s="111" t="s">
         <v>72</v>
@@ -2808,8 +2802,8 @@
       <c r="G9" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="129" t="s">
-        <v>115</v>
+      <c r="H9" s="128" t="s">
+        <v>108</v>
       </c>
       <c r="I9" s="110"/>
       <c r="J9" s="77"/>
@@ -2819,16 +2813,16 @@
         <v>71</v>
       </c>
       <c r="B10" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="D10" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="111" t="s">
         <v>76</v>
-      </c>
-      <c r="D10" s="111" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>77</v>
       </c>
       <c r="F10" s="109" t="s">
         <v>58</v>
@@ -2836,27 +2830,27 @@
       <c r="G10" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="129" t="s">
-        <v>115</v>
+      <c r="H10" s="128" t="s">
+        <v>108</v>
       </c>
       <c r="I10" s="110"/>
       <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" s="118" customFormat="1" ht="93" customHeight="1">
       <c r="A11" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="111" t="s">
+      <c r="C11" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="D11" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="111" t="s">
         <v>80</v>
-      </c>
-      <c r="D11" s="111" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="111" t="s">
-        <v>81</v>
       </c>
       <c r="F11" s="109" t="s">
         <v>60</v>
@@ -2864,26 +2858,26 @@
       <c r="G11" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="129" t="s">
-        <v>115</v>
+      <c r="H11" s="128" t="s">
+        <v>108</v>
       </c>
       <c r="I11" s="109"/>
     </row>
     <row r="12" spans="1:10" ht="102" customHeight="1">
       <c r="A12" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="111" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="C12" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="111" t="s">
+      <c r="D12" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="112" t="s">
         <v>84</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="112" t="s">
-        <v>85</v>
       </c>
       <c r="F12" s="110" t="s">
         <v>61</v>
@@ -2891,40 +2885,38 @@
       <c r="G12" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="I12" s="130"/>
+      <c r="H12" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="129"/>
       <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10" ht="104" customHeight="1">
       <c r="A13" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="131" t="s">
-        <v>118</v>
+        <v>88</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="130" t="s">
-        <v>143</v>
+        <v>109</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="129" t="s">
+        <v>130</v>
       </c>
       <c r="F13" s="115" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="130" t="s">
-        <v>142</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H13" s="128" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" s="129"/>
     </row>
     <row r="14" spans="1:10" ht="14">
       <c r="A14" s="57"/>
@@ -2969,7 +2961,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3001,13 +2993,13 @@
       <c r="A2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="153"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="62"/>
@@ -3019,13 +3011,13 @@
       <c r="A3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="153" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="156"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
       <c r="I3" s="62"/>
@@ -3037,11 +3029,11 @@
       <c r="A4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
       <c r="I4" s="62"/>
@@ -3060,10 +3052,10 @@
       <c r="D5" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="158"/>
+      <c r="F5" s="157"/>
       <c r="G5" s="70"/>
       <c r="H5" s="70"/>
       <c r="I5" s="71"/>
@@ -3088,11 +3080,11 @@
         <f t="array" ref="D6">SUM(IF($G$9:$G$99="N/A",1,0))</f>
         <v>2</v>
       </c>
-      <c r="E6" s="149">
+      <c r="E6" s="148">
         <f>5</f>
         <v>5</v>
       </c>
-      <c r="F6" s="150"/>
+      <c r="F6" s="149"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70"/>
       <c r="I6" s="71"/>
@@ -3140,19 +3132,19 @@
     </row>
     <row r="9" spans="1:10" s="78" customFormat="1" ht="90">
       <c r="A9" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="111" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="111" t="s">
+      <c r="D9" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="111" t="s">
         <v>87</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="111" t="s">
-        <v>88</v>
       </c>
       <c r="F9" s="115" t="s">
         <v>63</v>
@@ -3160,55 +3152,55 @@
       <c r="G9" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="128" t="s">
-        <v>115</v>
+      <c r="H9" s="127" t="s">
+        <v>108</v>
       </c>
       <c r="I9" s="114"/>
       <c r="J9" s="77"/>
     </row>
     <row r="10" spans="1:10" s="78" customFormat="1" ht="90">
-      <c r="A10" s="133" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="132" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="134" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="134" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="134" t="s">
-        <v>128</v>
+      <c r="A10" s="132" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="133" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="133" t="s">
+        <v>116</v>
       </c>
       <c r="F10" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="133" t="s">
+      <c r="G10" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="135" t="s">
-        <v>115</v>
-      </c>
-      <c r="I10" s="136"/>
+      <c r="H10" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="135"/>
       <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="90">
       <c r="A11" s="109" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" s="111" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C11" s="111" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="134" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>117</v>
       </c>
       <c r="F11" s="115" t="s">
         <v>65</v>
@@ -3216,67 +3208,67 @@
       <c r="G11" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="135" t="s">
-        <v>115</v>
-      </c>
-      <c r="I11" s="137"/>
+      <c r="H11" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="136"/>
     </row>
     <row r="12" spans="1:10" ht="90">
       <c r="A12" s="109" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B12" s="111" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C12" s="111" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E12" s="111" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F12" s="115" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G12" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="128" t="s">
-        <v>115</v>
+      <c r="H12" s="127" t="s">
+        <v>108</v>
       </c>
       <c r="I12" s="114" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60">
       <c r="A13" s="109" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="115" t="s">
         <v>124</v>
-      </c>
-      <c r="D13" s="131" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="139" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" s="115" t="s">
-        <v>136</v>
       </c>
       <c r="G13" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="128" t="s">
-        <v>115</v>
+      <c r="H13" s="127" t="s">
+        <v>108</v>
       </c>
       <c r="I13" s="114" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="9:9">
@@ -3313,181 +3305,190 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2890AA3D-DD43-8643-987D-A9F3B155D00A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9DE56-4F34-3847-9DE3-3FE1ACFF2F2A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="121" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="121" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="121" customWidth="1"/>
-    <col min="4" max="4" width="76.5" style="121" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="121"/>
+    <col min="1" max="1" width="22.83203125" style="120" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="120" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="120" customWidth="1"/>
+    <col min="4" max="4" width="76.5" style="120" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="120"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="121" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21">
+      <c r="A2" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="126" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21">
+      <c r="A3" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21">
+      <c r="A4" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="123" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="124" t="s">
+      <c r="D4" s="126" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="125" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="126" t="s">
+    <row r="5" spans="1:4" ht="21">
+      <c r="A5" s="124" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="125" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D5" s="126" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="21">
-      <c r="A3" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="126" t="s">
+    <row r="6" spans="1:4" ht="21">
+      <c r="A6" s="124" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21">
+      <c r="A7" s="124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="125" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D7" s="126" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21">
-      <c r="A4" s="125" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="126" t="s">
+    <row r="8" spans="1:4" ht="21">
+      <c r="A8" s="124" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="126" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21">
+      <c r="A10" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="125" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="127" t="s">
+      <c r="D10" s="126" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21">
-      <c r="A5" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="126" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="127" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="125" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="126" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21">
-      <c r="A7" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="126" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="127" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="126" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="121" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="21">
-      <c r="A10" s="125" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="125" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="127" t="s">
-        <v>114</v>
-      </c>
-    </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="125" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="125" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="140" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="125"/>
+      <c r="A11" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="139" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
@@ -3496,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64336199-8AF6-B940-8B43-002AEC695EDA}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -3515,15 +3516,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="79"/>
@@ -3539,14 +3540,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="159" t="s">
+      <c r="D3" s="147"/>
+      <c r="E3" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="159"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="82"/>
       <c r="H3" s="83"/>
     </row>
@@ -3554,14 +3555,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="159" t="s">
+      <c r="D4" s="147"/>
+      <c r="E4" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="159"/>
+      <c r="F4" s="158"/>
       <c r="G4" s="82"/>
       <c r="H4" s="83"/>
     </row>
@@ -3569,15 +3570,15 @@
       <c r="B5" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="148" t="str">
+      <c r="C5" s="147" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="148"/>
-      <c r="E5" s="159" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="159"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="82"/>
       <c r="H5" s="85" t="s">
         <v>44</v>
@@ -3588,14 +3589,14 @@
       <c r="B6" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="160" t="s">
+      <c r="C6" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="79"/>
@@ -3651,11 +3652,11 @@
       </c>
       <c r="D11" s="95">
         <f>Module1!A6</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="95">
         <f>Module1!B6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="95">
         <f>Module1!C6</f>
@@ -3717,11 +3718,11 @@
       </c>
       <c r="D14" s="100">
         <f>SUM(D9:D13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="100">
         <f>SUM(E9:E13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="100">
         <f>SUM(F9:F13)</f>
@@ -3763,7 +3764,7 @@
       </c>
       <c r="E17" s="106">
         <f>D14*100/(H14-G14)</f>
-        <v>87.5</v>
+        <v>100</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>51</v>
